--- a/Health/Diet.xlsx
+++ b/Health/Diet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brijeshluckria/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brijeshluckria/Desktop/GIT/HomeDIY/Health/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD3CBCB-A4E2-E149-805E-A4DE31B2949B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>

--- a/Health/Diet.xlsx
+++ b/Health/Diet.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD3CBCB-A4E2-E149-805E-A4DE31B2949B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="29400" windowHeight="16660" activeTab="2" xr2:uid="{A6D84EA6-F4DC-7548-9AEA-7DB3B0B2FF87}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="29400" windowHeight="16660" activeTab="3" xr2:uid="{A6D84EA6-F4DC-7548-9AEA-7DB3B0B2FF87}"/>
   </bookViews>
   <sheets>
     <sheet name="Week-1-Daily Diet" sheetId="1" r:id="rId1"/>
@@ -1461,7 +1461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1924C4A-ED93-F042-9A75-140BC735FB9F}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1986,8 +1986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E442C7D1-2BF5-4847-82F1-DB8BF34AE9A3}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Health/Diet.xlsx
+++ b/Health/Diet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brijeshluckria/Desktop/GIT/HomeDIY/Health/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD3CBCB-A4E2-E149-805E-A4DE31B2949B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D878C3F4-C93E-6742-8773-96932214F23E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="29400" windowHeight="16660" activeTab="3" xr2:uid="{A6D84EA6-F4DC-7548-9AEA-7DB3B0B2FF87}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="29400" windowHeight="16660" activeTab="6" xr2:uid="{A6D84EA6-F4DC-7548-9AEA-7DB3B0B2FF87}"/>
   </bookViews>
   <sheets>
     <sheet name="Week-1-Daily Diet" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Suppliment" sheetId="7" r:id="rId4"/>
     <sheet name="Calculation" sheetId="2" r:id="rId5"/>
     <sheet name="Rules" sheetId="4" r:id="rId6"/>
+    <sheet name="Reason for not loosing Fat1" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="130">
   <si>
     <t>Time</t>
   </si>
@@ -229,9 +230,6 @@
     <t>70 g Avacado Pulp</t>
   </si>
   <si>
-    <t>1 medium  Apple</t>
-  </si>
-  <si>
     <t>1 Scoop Whey Protein</t>
   </si>
   <si>
@@ -419,6 +417,21 @@
   </si>
   <si>
     <t>1/2 Spoon Olive oIl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At least 150g </t>
+  </si>
+  <si>
+    <t>Callores deficit Error</t>
+  </si>
+  <si>
+    <t>Lquiid Cal (Oil / Ghee)</t>
+  </si>
+  <si>
+    <t>Very low NEAT - (Non Exercise Activity Thermogenesis)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weekend Eating and Snacks Eating </t>
   </si>
 </sst>
 </file>
@@ -1062,7 +1075,7 @@
         <v>13</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -1070,7 +1083,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>51</v>
@@ -1103,7 +1116,7 @@
         <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D4">
         <v>140</v>
@@ -1124,7 +1137,7 @@
     <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="C5" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5">
         <v>102</v>
@@ -1145,7 +1158,7 @@
     <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="C6" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D6">
         <v>65</v>
@@ -1187,7 +1200,7 @@
     <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="C8" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D8">
         <v>60</v>
@@ -1221,7 +1234,7 @@
         <v>57</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D11">
         <v>120</v>
@@ -1242,7 +1255,7 @@
     <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="C12" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12">
         <v>60</v>
@@ -1263,7 +1276,7 @@
     <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="C13" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D13">
         <v>60</v>
@@ -1284,7 +1297,7 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D14">
         <v>35</v>
@@ -1305,7 +1318,7 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="C15" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D15">
         <v>120</v>
@@ -1359,7 +1372,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D19">
         <v>250</v>
@@ -1379,7 +1392,7 @@
     </row>
     <row r="20" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="C20" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D20">
         <v>60</v>
@@ -1414,7 +1427,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D25">
         <v>180</v>
@@ -1459,10 +1472,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1924C4A-ED93-F042-9A75-140BC735FB9F}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1498,7 +1511,7 @@
         <v>13</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -1506,7 +1519,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>51</v>
@@ -1530,7 +1543,7 @@
     <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3">
         <v>120</v>
@@ -1560,7 +1573,7 @@
         <v>54</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D5">
         <v>140</v>
@@ -1581,7 +1594,7 @@
     <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="C6" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D6">
         <v>102</v>
@@ -1602,7 +1615,7 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D7">
         <v>100</v>
@@ -1644,7 +1657,7 @@
     <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="C9" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D9">
         <v>60</v>
@@ -1678,7 +1691,7 @@
         <v>57</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D12">
         <v>120</v>
@@ -1699,7 +1712,7 @@
     <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="C13" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13">
         <v>60</v>
@@ -1720,7 +1733,7 @@
     <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="C14" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D14">
         <v>60</v>
@@ -1741,7 +1754,7 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D15">
         <v>35</v>
@@ -1765,161 +1778,144 @@
         <v>62</v>
       </c>
       <c r="D16">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E16">
+        <v>24</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>1.5</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="C17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17">
+        <v>65</v>
+      </c>
+      <c r="E17">
+        <v>1.5</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>7</v>
+      </c>
+      <c r="H17">
         <v>0.5</v>
-      </c>
-      <c r="F16">
-        <v>25</v>
-      </c>
-      <c r="G16">
-        <v>0.3</v>
-      </c>
-      <c r="H16">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="C17" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17">
-        <v>120</v>
-      </c>
-      <c r="E17">
-        <v>24</v>
-      </c>
-      <c r="F17">
-        <v>3</v>
-      </c>
-      <c r="G17">
-        <v>1.5</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="C18" t="s">
-        <v>109</v>
-      </c>
-      <c r="D18">
-        <v>65</v>
-      </c>
-      <c r="E18">
-        <v>1.5</v>
-      </c>
-      <c r="F18">
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>420</v>
+      </c>
+      <c r="E19">
+        <v>52</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>22</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20">
+        <v>250</v>
+      </c>
+      <c r="E20">
+        <v>17</v>
+      </c>
+      <c r="F20">
+        <v>46</v>
+      </c>
+      <c r="G20">
         <v>1</v>
       </c>
-      <c r="G18">
+      <c r="H20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="C21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21">
+        <v>60</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
         <v>7</v>
       </c>
-      <c r="H18">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23">
+        <v>80</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23">
         <v>6</v>
       </c>
-      <c r="C20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20">
-        <v>420</v>
-      </c>
-      <c r="E20">
-        <v>52</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>22</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21">
-        <v>250</v>
-      </c>
-      <c r="E21">
-        <v>17</v>
-      </c>
-      <c r="F21">
-        <v>46</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="C22" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22">
-        <v>60</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>7</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="B24" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24">
-        <v>80</v>
-      </c>
-      <c r="E24">
+      <c r="G23">
         <v>4</v>
       </c>
-      <c r="F24">
-        <v>6</v>
-      </c>
-      <c r="G24">
-        <v>4</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
@@ -1934,46 +1930,42 @@
       <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C29" t="s">
-        <v>66</v>
+      <c r="C28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28">
+        <v>180</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="F28">
+        <v>42</v>
+      </c>
+      <c r="G28">
+        <v>0.2</v>
+      </c>
+      <c r="H28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="C29" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="D29">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="E29">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="F29">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="G29">
-        <v>0.2</v>
+        <v>10.5</v>
       </c>
       <c r="H29">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="C30" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30">
-        <v>110</v>
-      </c>
-      <c r="E30">
-        <v>1.4</v>
-      </c>
-      <c r="F30">
-        <v>6</v>
-      </c>
-      <c r="G30">
-        <v>10.5</v>
-      </c>
-      <c r="H30">
         <v>4.7</v>
       </c>
     </row>
@@ -1986,72 +1978,76 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E442C7D1-2BF5-4847-82F1-DB8BF34AE9A3}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.83203125" customWidth="1"/>
     <col min="2" max="2" width="25.83203125" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>10</v>
       </c>
+      <c r="B1" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" t="s">
         <v>119</v>
-      </c>
-      <c r="B9" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2063,7 +2059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87D2D63-656A-564D-A6BA-96500DE687D7}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -2242,7 +2238,7 @@
         <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11">
         <v>16</v>
@@ -2349,10 +2345,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" t="s">
         <v>87</v>
-      </c>
-      <c r="B18" t="s">
-        <v>88</v>
       </c>
       <c r="C18">
         <v>55</v>
@@ -2369,10 +2365,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C19">
         <v>40</v>
@@ -2389,10 +2385,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C20">
         <v>58</v>
@@ -2429,10 +2425,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" t="s">
         <v>69</v>
-      </c>
-      <c r="B22" t="s">
-        <v>70</v>
       </c>
       <c r="C22">
         <v>3.6</v>
@@ -2459,7 +2455,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B25" t="s">
         <v>39</v>
@@ -2479,7 +2475,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B26" t="s">
         <v>39</v>
@@ -2529,7 +2525,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B30" t="s">
         <v>39</v>
@@ -2609,10 +2605,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" t="s">
         <v>66</v>
-      </c>
-      <c r="B34" t="s">
-        <v>67</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -2629,10 +2625,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C35">
         <v>3.8</v>
@@ -2649,7 +2645,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B36" t="s">
         <v>36</v>
@@ -2669,7 +2665,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -2719,10 +2715,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C44">
         <v>6</v>
@@ -2739,10 +2735,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C45">
         <v>4.5</v>
@@ -2759,10 +2755,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C46">
         <v>6</v>
@@ -2779,10 +2775,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" t="s">
         <v>98</v>
-      </c>
-      <c r="B47" t="s">
-        <v>99</v>
       </c>
       <c r="C47">
         <v>6</v>
@@ -2799,7 +2795,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -2809,7 +2805,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B52" t="s">
         <v>28</v>
@@ -2848,7 +2844,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2859,34 +2855,84 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>96</v>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B18129-5129-4F45-AE15-835139382106}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="60.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/Health/Diet.xlsx
+++ b/Health/Diet.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D878C3F4-C93E-6742-8773-96932214F23E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="29400" windowHeight="16660" activeTab="6" xr2:uid="{A6D84EA6-F4DC-7548-9AEA-7DB3B0B2FF87}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="29400" windowHeight="16660" activeTab="2" xr2:uid="{A6D84EA6-F4DC-7548-9AEA-7DB3B0B2FF87}"/>
   </bookViews>
   <sheets>
     <sheet name="Week-1-Daily Diet" sheetId="1" r:id="rId1"/>
@@ -1474,7 +1474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1924C4A-ED93-F042-9A75-140BC735FB9F}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -2894,7 +2894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B18129-5129-4F45-AE15-835139382106}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
